--- a/QuantStudio/Resource/TushareDBInfo.xlsx
+++ b/QuantStudio/Resource/TushareDBInfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18509EE-8118-45DC-97C8-01895ACCBE93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="21840" windowHeight="9648" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -12,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$G$128</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="593">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1888,13 +1889,110 @@
   </si>
   <si>
     <t>daily_basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓单日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fut_wsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码</t>
+  </si>
+  <si>
+    <t>fut_name</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>仓库名称</t>
+  </si>
+  <si>
+    <t>wh_id</t>
+  </si>
+  <si>
+    <t>仓库编号</t>
+  </si>
+  <si>
+    <t>pre_vol</t>
+  </si>
+  <si>
+    <t>昨日仓单量</t>
+  </si>
+  <si>
+    <t>今日仓单量</t>
+  </si>
+  <si>
+    <t>vol_chg</t>
+  </si>
+  <si>
+    <t>增减量</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>pd</t>
+  </si>
+  <si>
+    <t>升贴水</t>
+  </si>
+  <si>
+    <t>is_ct</t>
+  </si>
+  <si>
+    <t>是否折算仓单</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>ANNDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1952,7 +2050,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2027,6 +2125,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2062,6 +2177,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2237,22 +2369,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2269,7 +2401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -2283,7 +2415,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2297,7 +2429,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -2311,7 +2443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -2325,7 +2457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2339,7 +2471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>526</v>
       </c>
@@ -2353,7 +2485,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>528</v>
       </c>
@@ -2367,7 +2499,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>560</v>
       </c>
@@ -2381,7 +2513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2395,7 +2527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -2409,7 +2541,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>458</v>
       </c>
@@ -2423,7 +2555,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>495</v>
       </c>
@@ -2437,7 +2569,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -2451,7 +2583,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -2465,7 +2597,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -2479,96 +2611,96 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>562</v>
+      </c>
+      <c r="B17" t="s">
+        <v>563</v>
+      </c>
+      <c r="C17" t="s">
+        <v>564</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>272</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>270</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>514</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>512</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>501</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>342</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>320</v>
-      </c>
-      <c r="C19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" t="s">
-        <v>344</v>
       </c>
       <c r="C20" t="s">
         <v>253</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>499</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>500</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="B22" t="s">
-        <v>391</v>
+        <v>500</v>
       </c>
       <c r="C22" t="s">
         <v>392</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
         <v>392</v>
@@ -2577,12 +2709,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C24" t="s">
         <v>392</v>
@@ -2591,12 +2723,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C25" t="s">
         <v>392</v>
@@ -2605,12 +2737,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C26" t="s">
         <v>392</v>
@@ -2619,20 +2751,34 @@
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D27"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D28"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D31"/>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D32"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E26"/>
+  <autoFilter ref="A1:E27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2640,25 +2786,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G304"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +2827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -2698,7 +2844,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>192</v>
       </c>
@@ -2715,7 +2861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -2735,7 +2881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -2752,7 +2898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2769,7 +2915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2786,7 +2932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2803,7 +2949,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2826,7 +2972,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2843,7 +2989,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2860,7 +3006,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -2877,7 +3023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2894,7 +3040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -2914,7 +3060,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2931,7 +3077,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -2948,7 +3094,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2971,7 +3117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2988,7 +3134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -3005,7 +3151,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3025,7 +3171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>195</v>
       </c>
@@ -3042,7 +3188,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>195</v>
       </c>
@@ -3062,7 +3208,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -3079,7 +3225,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -3096,7 +3242,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -3113,7 +3259,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -3130,7 +3276,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>195</v>
       </c>
@@ -3147,7 +3293,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>195</v>
       </c>
@@ -3164,7 +3310,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -3181,7 +3327,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>195</v>
       </c>
@@ -3198,7 +3344,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -3215,7 +3361,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -3232,7 +3378,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>195</v>
       </c>
@@ -3249,7 +3395,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>195</v>
       </c>
@@ -3266,7 +3412,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>195</v>
       </c>
@@ -3283,7 +3429,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>195</v>
       </c>
@@ -3300,7 +3446,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -3318,7 +3464,7 @@
       </c>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3338,7 +3484,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -3356,7 +3502,7 @@
       </c>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -3374,7 +3520,7 @@
       </c>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>112</v>
       </c>
@@ -3392,7 +3538,7 @@
       </c>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -3410,7 +3556,7 @@
       </c>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -3428,7 +3574,7 @@
       </c>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -3446,7 +3592,7 @@
       </c>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -3464,7 +3610,7 @@
       </c>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -3482,7 +3628,7 @@
       </c>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -3500,7 +3646,7 @@
       </c>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -3518,7 +3664,7 @@
       </c>
       <c r="F48"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -3536,7 +3682,7 @@
       </c>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>113</v>
       </c>
@@ -3554,7 +3700,7 @@
       </c>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>524</v>
       </c>
@@ -3572,7 +3718,7 @@
       </c>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>524</v>
       </c>
@@ -3590,7 +3736,7 @@
       </c>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>524</v>
       </c>
@@ -3608,7 +3754,7 @@
       </c>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>524</v>
       </c>
@@ -3626,7 +3772,7 @@
       </c>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>524</v>
       </c>
@@ -3644,7 +3790,7 @@
       </c>
       <c r="F55"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>524</v>
       </c>
@@ -3662,7 +3808,7 @@
       </c>
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>524</v>
       </c>
@@ -3680,7 +3826,7 @@
       </c>
       <c r="F57"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>524</v>
       </c>
@@ -3698,7 +3844,7 @@
       </c>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>524</v>
       </c>
@@ -3716,7 +3862,7 @@
       </c>
       <c r="F59"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>524</v>
       </c>
@@ -3734,7 +3880,7 @@
       </c>
       <c r="F60"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>524</v>
       </c>
@@ -3752,7 +3898,7 @@
       </c>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>539</v>
       </c>
@@ -3770,7 +3916,7 @@
       </c>
       <c r="F62"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>539</v>
       </c>
@@ -3788,7 +3934,7 @@
       </c>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>539</v>
       </c>
@@ -3806,7 +3952,7 @@
       </c>
       <c r="F64"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>539</v>
       </c>
@@ -3824,7 +3970,7 @@
       </c>
       <c r="F65"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>539</v>
       </c>
@@ -3842,7 +3988,7 @@
       </c>
       <c r="F66"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>539</v>
       </c>
@@ -3860,7 +4006,7 @@
       </c>
       <c r="F67"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>539</v>
       </c>
@@ -3878,7 +4024,7 @@
       </c>
       <c r="F68"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>539</v>
       </c>
@@ -3896,7 +4042,7 @@
       </c>
       <c r="F69"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>539</v>
       </c>
@@ -3914,7 +4060,7 @@
       </c>
       <c r="F70"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>539</v>
       </c>
@@ -3932,7 +4078,7 @@
       </c>
       <c r="F71"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>539</v>
       </c>
@@ -3950,7 +4096,7 @@
       </c>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>559</v>
       </c>
@@ -3968,7 +4114,7 @@
       </c>
       <c r="F73"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>559</v>
       </c>
@@ -3986,7 +4132,7 @@
       </c>
       <c r="F74"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>559</v>
       </c>
@@ -4004,7 +4150,7 @@
       </c>
       <c r="F75"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>559</v>
       </c>
@@ -4022,7 +4168,7 @@
       </c>
       <c r="F76"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>559</v>
       </c>
@@ -4040,7 +4186,7 @@
       </c>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>559</v>
       </c>
@@ -4058,7 +4204,7 @@
       </c>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>559</v>
       </c>
@@ -4076,7 +4222,7 @@
       </c>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>559</v>
       </c>
@@ -4094,7 +4240,7 @@
       </c>
       <c r="F80"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>559</v>
       </c>
@@ -4112,7 +4258,7 @@
       </c>
       <c r="F81"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>559</v>
       </c>
@@ -4130,7 +4276,7 @@
       </c>
       <c r="F82"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>559</v>
       </c>
@@ -4148,7 +4294,7 @@
       </c>
       <c r="F83"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>559</v>
       </c>
@@ -4166,7 +4312,7 @@
       </c>
       <c r="F84"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>559</v>
       </c>
@@ -4184,7 +4330,7 @@
       </c>
       <c r="F85"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>559</v>
       </c>
@@ -4202,7 +4348,7 @@
       </c>
       <c r="F86"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>559</v>
       </c>
@@ -4220,7 +4366,7 @@
       </c>
       <c r="F87"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>559</v>
       </c>
@@ -4238,7 +4384,7 @@
       </c>
       <c r="F88"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>114</v>
       </c>
@@ -4258,7 +4404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -4278,7 +4424,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -4296,7 +4442,7 @@
       </c>
       <c r="F91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -4314,7 +4460,7 @@
       </c>
       <c r="F92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>256</v>
       </c>
@@ -4332,7 +4478,7 @@
       </c>
       <c r="F93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>256</v>
       </c>
@@ -4350,7 +4496,7 @@
       </c>
       <c r="F94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>256</v>
       </c>
@@ -4368,7 +4514,7 @@
       </c>
       <c r="F95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>256</v>
       </c>
@@ -4391,7 +4537,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -4409,7 +4555,7 @@
       </c>
       <c r="F97"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>256</v>
       </c>
@@ -4427,7 +4573,7 @@
       </c>
       <c r="F98"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>256</v>
       </c>
@@ -4450,7 +4596,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>256</v>
       </c>
@@ -4468,7 +4614,7 @@
       </c>
       <c r="F100"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>256</v>
       </c>
@@ -4486,7 +4632,7 @@
       </c>
       <c r="F101"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>256</v>
       </c>
@@ -4504,7 +4650,7 @@
       </c>
       <c r="F102"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>256</v>
       </c>
@@ -4522,7 +4668,7 @@
       </c>
       <c r="F103"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>256</v>
       </c>
@@ -4540,7 +4686,7 @@
       </c>
       <c r="F104"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>256</v>
       </c>
@@ -4558,7 +4704,7 @@
       </c>
       <c r="F105"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>457</v>
       </c>
@@ -4576,7 +4722,7 @@
       </c>
       <c r="F106"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>457</v>
       </c>
@@ -4594,7 +4740,7 @@
       </c>
       <c r="F107"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>457</v>
       </c>
@@ -4612,7 +4758,7 @@
       </c>
       <c r="F108"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>457</v>
       </c>
@@ -4630,7 +4776,7 @@
       </c>
       <c r="F109"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>457</v>
       </c>
@@ -4648,7 +4794,7 @@
       </c>
       <c r="F110"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>457</v>
       </c>
@@ -4666,7 +4812,7 @@
       </c>
       <c r="F111"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>457</v>
       </c>
@@ -4684,7 +4830,7 @@
       </c>
       <c r="F112"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>457</v>
       </c>
@@ -4702,7 +4848,7 @@
       </c>
       <c r="F113"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>457</v>
       </c>
@@ -4720,7 +4866,7 @@
       </c>
       <c r="F114"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>457</v>
       </c>
@@ -4738,7 +4884,7 @@
       </c>
       <c r="F115"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>457</v>
       </c>
@@ -4756,7 +4902,7 @@
       </c>
       <c r="F116"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>473</v>
       </c>
@@ -4774,7 +4920,7 @@
       </c>
       <c r="F117"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>473</v>
       </c>
@@ -4792,7 +4938,7 @@
       </c>
       <c r="F118"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -4810,7 +4956,7 @@
       </c>
       <c r="F119"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>473</v>
       </c>
@@ -4828,7 +4974,7 @@
       </c>
       <c r="F120"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>473</v>
       </c>
@@ -4846,7 +4992,7 @@
       </c>
       <c r="F121"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>473</v>
       </c>
@@ -4864,7 +5010,7 @@
       </c>
       <c r="F122"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>473</v>
       </c>
@@ -4882,7 +5028,7 @@
       </c>
       <c r="F123"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>473</v>
       </c>
@@ -4900,7 +5046,7 @@
       </c>
       <c r="F124"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>473</v>
       </c>
@@ -4918,7 +5064,7 @@
       </c>
       <c r="F125"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>473</v>
       </c>
@@ -4936,7 +5082,7 @@
       </c>
       <c r="F126"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>473</v>
       </c>
@@ -4954,7 +5100,7 @@
       </c>
       <c r="F127"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>473</v>
       </c>
@@ -4972,7 +5118,7 @@
       </c>
       <c r="F128"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -4989,7 +5135,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>115</v>
       </c>
@@ -5006,7 +5152,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>115</v>
       </c>
@@ -5026,7 +5172,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>115</v>
       </c>
@@ -5043,7 +5189,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -5060,7 +5206,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>115</v>
       </c>
@@ -5077,7 +5223,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>115</v>
       </c>
@@ -5094,7 +5240,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>115</v>
       </c>
@@ -5111,7 +5257,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>115</v>
       </c>
@@ -5128,7 +5274,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>115</v>
       </c>
@@ -5145,7 +5291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>115</v>
       </c>
@@ -5162,7 +5308,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>115</v>
       </c>
@@ -5179,7 +5325,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>115</v>
       </c>
@@ -5196,7 +5342,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>115</v>
       </c>
@@ -5213,7 +5359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>115</v>
       </c>
@@ -5230,7 +5376,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>115</v>
       </c>
@@ -5247,7 +5393,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>115</v>
       </c>
@@ -5267,7 +5413,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -5284,7 +5430,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -5301,7 +5447,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -5318,7 +5464,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -5335,7 +5481,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>146</v>
       </c>
@@ -5352,7 +5498,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>146</v>
       </c>
@@ -5369,7 +5515,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -5386,7 +5532,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>146</v>
       </c>
@@ -5403,7 +5549,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>146</v>
       </c>
@@ -5420,7 +5566,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>146</v>
       </c>
@@ -5440,7 +5586,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>146</v>
       </c>
@@ -5460,7 +5606,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -5477,7 +5623,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>146</v>
       </c>
@@ -5494,7 +5640,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>146</v>
       </c>
@@ -5511,7 +5657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -5528,7 +5674,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>146</v>
       </c>
@@ -5545,7 +5691,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>172</v>
       </c>
@@ -5562,7 +5708,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>172</v>
       </c>
@@ -5579,7 +5725,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -5596,7 +5742,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -5613,7 +5759,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -5630,7 +5776,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>172</v>
       </c>
@@ -5647,7 +5793,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>172</v>
       </c>
@@ -5664,7 +5810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -5681,7 +5827,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -5698,7 +5844,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>172</v>
       </c>
@@ -5715,7 +5861,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -5732,7 +5878,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5749,7 +5895,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>269</v>
       </c>
@@ -5766,7 +5912,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>269</v>
       </c>
@@ -5783,7 +5929,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>269</v>
       </c>
@@ -5800,7 +5946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>269</v>
       </c>
@@ -5817,7 +5963,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>269</v>
       </c>
@@ -5834,7 +5980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>269</v>
       </c>
@@ -5851,7 +5997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>269</v>
       </c>
@@ -5868,7 +6014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>269</v>
       </c>
@@ -5885,7 +6031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>269</v>
       </c>
@@ -5902,7 +6048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>269</v>
       </c>
@@ -5919,7 +6065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>269</v>
       </c>
@@ -5936,7 +6082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>269</v>
       </c>
@@ -5953,7 +6099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>269</v>
       </c>
@@ -5970,7 +6116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>269</v>
       </c>
@@ -5987,7 +6133,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>269</v>
       </c>
@@ -6004,7 +6150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>269</v>
       </c>
@@ -6021,7 +6167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>269</v>
       </c>
@@ -6038,7 +6184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>269</v>
       </c>
@@ -6055,7 +6201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>269</v>
       </c>
@@ -6075,7 +6221,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>269</v>
       </c>
@@ -6092,7 +6238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>269</v>
       </c>
@@ -6109,7 +6255,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>269</v>
       </c>
@@ -6126,7 +6272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>269</v>
       </c>
@@ -6143,7 +6289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>269</v>
       </c>
@@ -6160,7 +6306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>269</v>
       </c>
@@ -6183,7 +6329,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>511</v>
       </c>
@@ -6200,7 +6346,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>511</v>
       </c>
@@ -6217,7 +6363,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>511</v>
       </c>
@@ -6234,7 +6380,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>511</v>
       </c>
@@ -6251,7 +6397,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>511</v>
       </c>
@@ -6268,7 +6414,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>511</v>
       </c>
@@ -6285,7 +6431,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>511</v>
       </c>
@@ -6302,7 +6448,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>511</v>
       </c>
@@ -6319,7 +6465,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>511</v>
       </c>
@@ -6336,7 +6482,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>511</v>
       </c>
@@ -6353,7 +6499,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>511</v>
       </c>
@@ -6370,7 +6516,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>319</v>
       </c>
@@ -6387,7 +6533,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>319</v>
       </c>
@@ -6404,7 +6550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>319</v>
       </c>
@@ -6421,7 +6567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>319</v>
       </c>
@@ -6438,7 +6584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>319</v>
       </c>
@@ -6455,7 +6601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>319</v>
       </c>
@@ -6472,7 +6618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>319</v>
       </c>
@@ -6489,7 +6635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>319</v>
       </c>
@@ -6506,7 +6652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>319</v>
       </c>
@@ -6523,7 +6669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>319</v>
       </c>
@@ -6540,7 +6686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>319</v>
       </c>
@@ -6557,7 +6703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>319</v>
       </c>
@@ -6574,7 +6720,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>319</v>
       </c>
@@ -6591,7 +6737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>319</v>
       </c>
@@ -6608,7 +6754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>319</v>
       </c>
@@ -6625,7 +6771,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>319</v>
       </c>
@@ -6642,7 +6788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>319</v>
       </c>
@@ -6659,7 +6805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>319</v>
       </c>
@@ -6676,7 +6822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>346</v>
       </c>
@@ -6693,7 +6839,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>346</v>
       </c>
@@ -6713,7 +6859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>346</v>
       </c>
@@ -6730,7 +6876,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>346</v>
       </c>
@@ -6747,7 +6893,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>346</v>
       </c>
@@ -6764,7 +6910,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>346</v>
       </c>
@@ -6784,7 +6930,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>346</v>
       </c>
@@ -6801,7 +6947,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>346</v>
       </c>
@@ -6818,7 +6964,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>346</v>
       </c>
@@ -6835,7 +6981,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>346</v>
       </c>
@@ -6852,7 +6998,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>346</v>
       </c>
@@ -6869,7 +7015,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>346</v>
       </c>
@@ -6886,7 +7032,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>346</v>
       </c>
@@ -6903,7 +7049,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>346</v>
       </c>
@@ -6920,7 +7066,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>346</v>
       </c>
@@ -6937,7 +7083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>346</v>
       </c>
@@ -6954,7 +7100,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>346</v>
       </c>
@@ -6971,7 +7117,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>502</v>
       </c>
@@ -6988,7 +7134,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>502</v>
       </c>
@@ -7005,7 +7151,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>502</v>
       </c>
@@ -7022,7 +7168,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>502</v>
       </c>
@@ -7039,7 +7185,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>502</v>
       </c>
@@ -7056,7 +7202,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>502</v>
       </c>
@@ -7073,7 +7219,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>502</v>
       </c>
@@ -7090,7 +7236,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -7107,7 +7253,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>502</v>
       </c>
@@ -7124,7 +7270,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>502</v>
       </c>
@@ -7141,7 +7287,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>502</v>
       </c>
@@ -7158,7 +7304,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>502</v>
       </c>
@@ -7175,7 +7321,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>502</v>
       </c>
@@ -7192,7 +7338,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>403</v>
       </c>
@@ -7209,7 +7355,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>403</v>
       </c>
@@ -7226,7 +7372,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>403</v>
       </c>
@@ -7243,7 +7389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>403</v>
       </c>
@@ -7260,7 +7406,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>403</v>
       </c>
@@ -7277,7 +7423,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>403</v>
       </c>
@@ -7294,7 +7440,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>403</v>
       </c>
@@ -7311,7 +7457,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>403</v>
       </c>
@@ -7328,7 +7474,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>403</v>
       </c>
@@ -7345,7 +7491,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>394</v>
       </c>
@@ -7362,7 +7508,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>394</v>
       </c>
@@ -7379,7 +7525,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>394</v>
       </c>
@@ -7396,7 +7542,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>394</v>
       </c>
@@ -7413,7 +7559,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>394</v>
       </c>
@@ -7430,7 +7576,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>394</v>
       </c>
@@ -7447,7 +7593,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>394</v>
       </c>
@@ -7464,7 +7610,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>394</v>
       </c>
@@ -7481,7 +7627,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>394</v>
       </c>
@@ -7498,7 +7644,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>394</v>
       </c>
@@ -7515,7 +7661,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>394</v>
       </c>
@@ -7532,7 +7678,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>394</v>
       </c>
@@ -7549,7 +7695,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>394</v>
       </c>
@@ -7566,7 +7712,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>394</v>
       </c>
@@ -7583,7 +7729,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>394</v>
       </c>
@@ -7600,7 +7746,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>394</v>
       </c>
@@ -7617,7 +7763,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>394</v>
       </c>
@@ -7634,7 +7780,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>394</v>
       </c>
@@ -7651,7 +7797,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>398</v>
       </c>
@@ -7668,7 +7814,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>398</v>
       </c>
@@ -7685,7 +7831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>449</v>
       </c>
@@ -7702,7 +7848,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>449</v>
       </c>
@@ -7725,7 +7871,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>449</v>
       </c>
@@ -7742,7 +7888,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>449</v>
       </c>
@@ -7759,7 +7905,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>449</v>
       </c>
@@ -7776,7 +7922,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>449</v>
       </c>
@@ -7793,7 +7939,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>449</v>
       </c>
@@ -7810,7 +7956,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>449</v>
       </c>
@@ -7827,7 +7973,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>449</v>
       </c>
@@ -7844,7 +7990,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>401</v>
       </c>
@@ -7861,7 +8007,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>401</v>
       </c>
@@ -7878,7 +8024,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>401</v>
       </c>
@@ -7895,7 +8041,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>401</v>
       </c>
@@ -7912,7 +8058,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>401</v>
       </c>
@@ -7929,7 +8075,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>401</v>
       </c>
@@ -7946,7 +8092,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>401</v>
       </c>
@@ -7963,7 +8109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>401</v>
       </c>
@@ -7980,7 +8126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>401</v>
       </c>
@@ -7997,8 +8143,297 @@
         <v>258</v>
       </c>
     </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>562</v>
+      </c>
+      <c r="B305" t="s">
+        <v>2</v>
+      </c>
+      <c r="C305" t="s">
+        <v>26</v>
+      </c>
+      <c r="D305" t="s">
+        <v>24</v>
+      </c>
+      <c r="E305" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>562</v>
+      </c>
+      <c r="B306" t="s">
+        <v>565</v>
+      </c>
+      <c r="C306" t="s">
+        <v>57</v>
+      </c>
+      <c r="D306" t="s">
+        <v>24</v>
+      </c>
+      <c r="E306" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>562</v>
+      </c>
+      <c r="B307" t="s">
+        <v>567</v>
+      </c>
+      <c r="C307" t="s">
+        <v>566</v>
+      </c>
+      <c r="D307" t="s">
+        <v>24</v>
+      </c>
+      <c r="E307" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>562</v>
+      </c>
+      <c r="B308" t="s">
+        <v>569</v>
+      </c>
+      <c r="C308" t="s">
+        <v>568</v>
+      </c>
+      <c r="D308" t="s">
+        <v>24</v>
+      </c>
+      <c r="E308" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>562</v>
+      </c>
+      <c r="B309" t="s">
+        <v>571</v>
+      </c>
+      <c r="C309" t="s">
+        <v>570</v>
+      </c>
+      <c r="D309" t="s">
+        <v>24</v>
+      </c>
+      <c r="E309" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>562</v>
+      </c>
+      <c r="B310" t="s">
+        <v>573</v>
+      </c>
+      <c r="C310" t="s">
+        <v>572</v>
+      </c>
+      <c r="D310" t="s">
+        <v>221</v>
+      </c>
+      <c r="E310" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>562</v>
+      </c>
+      <c r="B311" t="s">
+        <v>574</v>
+      </c>
+      <c r="C311" t="s">
+        <v>41</v>
+      </c>
+      <c r="D311" t="s">
+        <v>221</v>
+      </c>
+      <c r="E311" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>562</v>
+      </c>
+      <c r="B312" t="s">
+        <v>576</v>
+      </c>
+      <c r="C312" t="s">
+        <v>575</v>
+      </c>
+      <c r="D312" t="s">
+        <v>221</v>
+      </c>
+      <c r="E312" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>562</v>
+      </c>
+      <c r="B313" t="s">
+        <v>577</v>
+      </c>
+      <c r="C313" t="s">
+        <v>85</v>
+      </c>
+      <c r="D313" t="s">
+        <v>24</v>
+      </c>
+      <c r="E313" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>562</v>
+      </c>
+      <c r="B314" t="s">
+        <v>579</v>
+      </c>
+      <c r="C314" t="s">
+        <v>578</v>
+      </c>
+      <c r="D314" t="s">
+        <v>24</v>
+      </c>
+      <c r="E314" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>562</v>
+      </c>
+      <c r="B315" t="s">
+        <v>581</v>
+      </c>
+      <c r="C315" t="s">
+        <v>580</v>
+      </c>
+      <c r="D315" t="s">
+        <v>24</v>
+      </c>
+      <c r="E315" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>562</v>
+      </c>
+      <c r="B316" t="s">
+        <v>583</v>
+      </c>
+      <c r="C316" t="s">
+        <v>582</v>
+      </c>
+      <c r="D316" t="s">
+        <v>24</v>
+      </c>
+      <c r="E316" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>562</v>
+      </c>
+      <c r="B317" t="s">
+        <v>585</v>
+      </c>
+      <c r="C317" t="s">
+        <v>584</v>
+      </c>
+      <c r="D317" t="s">
+        <v>24</v>
+      </c>
+      <c r="E317" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>562</v>
+      </c>
+      <c r="B318" t="s">
+        <v>587</v>
+      </c>
+      <c r="C318" t="s">
+        <v>586</v>
+      </c>
+      <c r="D318" t="s">
+        <v>221</v>
+      </c>
+      <c r="E318" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>562</v>
+      </c>
+      <c r="B319" t="s">
+        <v>589</v>
+      </c>
+      <c r="C319" t="s">
+        <v>588</v>
+      </c>
+      <c r="D319" t="s">
+        <v>24</v>
+      </c>
+      <c r="E319" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>562</v>
+      </c>
+      <c r="B320" t="s">
+        <v>591</v>
+      </c>
+      <c r="C320" t="s">
+        <v>590</v>
+      </c>
+      <c r="D320" t="s">
+        <v>24</v>
+      </c>
+      <c r="E320" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>562</v>
+      </c>
+      <c r="B321" t="s">
+        <v>190</v>
+      </c>
+      <c r="C321" t="s">
+        <v>90</v>
+      </c>
+      <c r="D321" t="s">
+        <v>24</v>
+      </c>
+      <c r="E321" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G128"/>
+  <autoFilter ref="A1:G128" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
